--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,199 +40,196 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>bread</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>old</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>time</t>
@@ -599,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.303030303030303</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2868217054263566</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8452012383900929</v>
+        <v>0.8671875</v>
       </c>
       <c r="L5">
-        <v>546</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>546</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +817,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.8359133126934984</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -872,13 +869,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7532467532467533</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -898,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -924,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7056277056277056</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L11">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -950,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.704225352112676</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="L12">
         <v>50</v>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -976,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.688135593220339</v>
+        <v>0.6474576271186441</v>
       </c>
       <c r="L13">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M13">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1002,13 +999,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.684931506849315</v>
+        <v>0.6460674157303371</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>805</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>805</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1028,13 +1025,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6615384615384615</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1054,13 +1051,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6324237560192616</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L16">
-        <v>788</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>788</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>458</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1080,13 +1077,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1106,13 +1103,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6176470588235294</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1132,13 +1129,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.609375</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1158,13 +1155,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5964912280701754</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1184,25 +1181,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5918367346938775</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L21">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <v>42</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>29</v>
-      </c>
-      <c r="M21">
-        <v>29</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1210,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1236,13 +1233,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5828571428571429</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1262,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1288,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1314,13 +1311,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1340,13 +1337,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5470085470085471</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L27">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1366,13 +1363,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1392,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5301204819277109</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1418,13 +1415,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5149700598802395</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L30">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1444,13 +1441,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4918032786885246</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1462,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1470,13 +1467,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4887218045112782</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L32">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1488,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1496,13 +1493,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4879518072289157</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L33">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M33">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1514,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1522,13 +1519,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4736842105263158</v>
+        <v>0.44</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1540,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1548,13 +1545,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4444444444444444</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1566,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1574,13 +1571,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.41</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L36">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1600,13 +1597,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.392156862745098</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L37">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M37">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1618,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1626,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3815789473684211</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1644,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1652,13 +1649,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3618677042801556</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L39">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M39">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1670,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1678,13 +1675,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3603603603603603</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1696,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>71</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1704,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3458646616541353</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L41">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1722,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1730,13 +1727,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3452054794520548</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L42">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1748,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>478</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1756,13 +1753,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.316546762589928</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1774,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1782,13 +1779,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2870813397129187</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L44">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1800,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1808,13 +1805,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2777777777777778</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1826,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1834,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2744886975242196</v>
+        <v>0.2572658772874058</v>
       </c>
       <c r="L46">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="M46">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1852,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1860,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2702702702702703</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1878,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>81</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1886,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2516556291390729</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1904,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>113</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1912,13 +1909,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.2147651006711409</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1938,13 +1935,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.213166144200627</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L50">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="M50">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1956,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>251</v>
+        <v>602</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1964,13 +1961,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1960264900662252</v>
+        <v>0.190537084398977</v>
       </c>
       <c r="L51">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M51">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1982,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>607</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1990,25 +1987,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1856594110115237</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L52">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="N52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>636</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2016,25 +2013,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1682926829268293</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L53">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>341</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2042,13 +2039,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1512915129151292</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M54">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2060,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>230</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2068,25 +2065,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.145945945945946</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="L55">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M55">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>316</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2094,13 +2091,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1407407407407407</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2112,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>232</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2120,25 +2117,25 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1374570446735395</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M57">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>251</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2146,13 +2143,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1363636363636364</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L58">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2164,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>380</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2172,13 +2169,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1302521008403361</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M59">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2190,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2198,13 +2195,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1193317422434367</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L60">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M60">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2216,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>369</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2224,13 +2221,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.1162280701754386</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L61">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2242,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>403</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2250,25 +2247,25 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.109038737446198</v>
+        <v>0.07951356407857811</v>
       </c>
       <c r="L62">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M62">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>621</v>
+        <v>984</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2276,25 +2273,25 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.08743169398907104</v>
+        <v>0.07604017216642754</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>334</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2302,13 +2299,13 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.0830223880597015</v>
+        <v>0.06826568265682657</v>
       </c>
       <c r="L64">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2320,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>983</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2328,51 +2325,25 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.05914972273567468</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L65">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M65">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66">
-        <v>0.04329004329004329</v>
-      </c>
-      <c r="L66">
-        <v>50</v>
-      </c>
-      <c r="M66">
-        <v>52</v>
-      </c>
-      <c r="N66">
-        <v>0.96</v>
-      </c>
-      <c r="O66">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
